--- a/paramInfo/PH_ferrite_n100/paramInfo.xlsx
+++ b/paramInfo/PH_ferrite_n100/paramInfo.xlsx
@@ -25,16 +25,16 @@
     <t>type</t>
   </si>
   <si>
-    <t>initial_lower</t>
-  </si>
-  <si>
-    <t>initial_upper</t>
-  </si>
-  <si>
-    <t>iteration_lower</t>
-  </si>
-  <si>
-    <t>iteration_upper</t>
+    <t>initial_lowerBound</t>
+  </si>
+  <si>
+    <t>initial_upperBound</t>
+  </si>
+  <si>
+    <t>iteration_lowerBound</t>
+  </si>
+  <si>
+    <t>iteration_upperBound</t>
   </si>
   <si>
     <t>exponent</t>
@@ -152,8 +152,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,10 +466,10 @@
     <col min="1" max="1" style="4" width="38.71928571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="4" width="22.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="4" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="23.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="4" width="17.290714285714284" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -485,16 +485,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
